--- a/public/uploads/sales.xlsx
+++ b/public/uploads/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\kambucha\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917699E-9919-4E9D-986A-3F269DE4528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB9261-2251-40DE-A2A3-4D4C6F52575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>driver</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Suwai</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>Mutare</t>
+  </si>
+  <si>
+    <t>branch</t>
   </si>
 </sst>
 </file>
@@ -477,17 +489,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,7 +510,9 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,6 +522,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -516,6 +533,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -524,6 +544,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -532,6 +555,9 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -540,6 +566,9 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -548,6 +577,9 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -556,6 +588,9 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -564,6 +599,9 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -572,6 +610,9 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -580,12 +621,18 @@
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -594,6 +641,9 @@
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -602,6 +652,9 @@
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -610,6 +663,9 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -618,61 +674,93 @@
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/sales.xlsx
+++ b/public/uploads/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\kambucha\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB9261-2251-40DE-A2A3-4D4C6F52575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A91D3-953B-4CBE-92CA-3D8DBB448EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>driver</t>
   </si>
@@ -160,6 +160,33 @@
   </si>
   <si>
     <t>branch</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Brival</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Blessing Mashava</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Marketing</t>
   </si>
 </sst>
 </file>
@@ -489,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +656,9 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -746,10 +775,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
@@ -757,10 +786,68 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
